--- a/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
@@ -2632,7 +2632,7 @@
         <v>86</v>
       </c>
       <c r="B79">
-        <v>102.36</v>
+        <v>102.43</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
@@ -2608,7 +2608,7 @@
         <v>83</v>
       </c>
       <c r="B76">
-        <v>96.38</v>
+        <v>96.36</v>
       </c>
     </row>
     <row r="77" spans="1:2">

--- a/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
+++ b/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Serie</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2608,7 +2611,7 @@
         <v>83</v>
       </c>
       <c r="B76">
-        <v>96.36</v>
+        <v>96.34999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2633,6 +2636,14 @@
       </c>
       <c r="B79">
         <v>102.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80">
+        <v>104.9</v>
       </c>
     </row>
   </sheetData>
